--- a/SCRUM DAILY.xlsx
+++ b/SCRUM DAILY.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="By question" sheetId="1" r:id="rId1"/>
+    <sheet name="Semana3" sheetId="1" r:id="rId1"/>
+    <sheet name="Semana4" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
   <si>
     <t>Javier</t>
   </si>
@@ -85,6 +86,27 @@
   </si>
   <si>
     <t>REPARTO DE TAREAS ASIGNADAS EN LA REUNIÓN DIARIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Añadir en el registro el tipo del usuario</t>
+  </si>
+  <si>
+    <t>Añadir en el registro los grupos (solo si es alumno)</t>
+  </si>
+  <si>
+    <t>Mostrar lista de usuarios con nombre y tipo de usuario</t>
+  </si>
+  <si>
+    <t>Mostrar lista de usuarios con nombre y tipo de usuario. Añadir, modificar y eliminar usuarios</t>
+  </si>
+  <si>
+    <t>Programación asignación de asignaturas</t>
+  </si>
+  <si>
+    <t>Añadir, modificar y eliminar</t>
   </si>
 </sst>
 </file>
@@ -208,7 +230,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -219,35 +241,41 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -604,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -620,21 +648,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="5"/>
-      <c r="B1" s="12" t="s">
+      <c r="A1" s="14"/>
+      <c r="B1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
@@ -651,65 +679,65 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15" t="s">
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15" t="s">
+      <c r="F4" s="16"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="9"/>
+      <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="3"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -718,7 +746,7 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="3"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -726,7 +754,7 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="3"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -755,4 +783,162 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="27.625" customWidth="1"/>
+    <col min="3" max="3" width="26.125" customWidth="1"/>
+    <col min="4" max="4" width="17.375" customWidth="1"/>
+    <col min="5" max="5" width="18.625" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="17.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="14"/>
+      <c r="B1" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="16"/>
+      <c r="F3" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+</worksheet>
 </file>